--- a/biology/Zoologie/Athoracophoridae/Athoracophoridae.xlsx
+++ b/biology/Zoologie/Athoracophoridae/Athoracophoridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Athoracophoridae sont une famille de limaces, des mollusques gastéropodes pulmonés terrestres de l'ordre  des Stylommatophora, regroupant les escargots et limaces dont les yeux sont situés à l'extrémité de tentacules. Beaucoup d'espèces de cette famille ont un dessin sur leur surface dorsale qui ressemble aux nervures d'une feuille, d'où leur nom commun anglais de « leaf-veined slugs » (limaces à nervures de feuille).
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve les limaces de cette famille dans l'Est de l'Australie, en Nouvelle-Zélande, y compris ses îles sub-antarctiques, ainsi que sur les îles mélanésiennes du Nord de la Nouvelle-Calédonie et en Nouvelle-Bretagne, en Papouasie-Nouvelle-Guinée.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On les trouve dans les forêts et les tussocks humides de montagne à l'intérieur de la gaine des feuilles de palmiers nikaus ou dans les buissons de Phormium.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres limaces, elles possèdent une coquille vestigiale interne formée de nombreuses petites particules de calcaire mais elles se distinguent des autres familles par les nervures de feuille situées sur leur face dorsale, et les deux, et non pas quatre, tentacules.
 </t>
@@ -605,7 +623,9 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe deux sous-familles au sein de la famille des Athoracophoridae :
 sous-famille des Athoracophorinae P. Fischer, 1883 (1860) - synonyme Janellidae Gray, 1853, vivant plutôt dans les régions sub-antarctiques
@@ -637,7 +657,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Aneitea
 Aneitea sarasini
@@ -671,7 +693,7 @@
 Reflectopallium pseudophyllum Burton, 1963
 Triboniophorus Humbert, 1863
 Triboniophorus graeffei Humbert, 1863
-incertae sedis: Triboniophorus brisbanensis Pfeiffer, 1900[2]</t>
+incertae sedis: Triboniophorus brisbanensis Pfeiffer, 1900</t>
         </is>
       </c>
     </row>
